--- a/Klausur_Ordner/Types_and_Scales.xlsx
+++ b/Klausur_Ordner/Types_and_Scales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Dokumente\GitHub\Statistics_WS23\Klausur_Ordner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B628706-A9AE-4F4C-923C-8DA40C53BB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC269285-D7CD-4CC2-ABB8-3667CDF2AA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FD3872F3-31C5-4B8C-9ECC-765869847C72}"/>
+    <workbookView xWindow="1320" yWindow="420" windowWidth="35775" windowHeight="18930" xr2:uid="{FD3872F3-31C5-4B8C-9ECC-765869847C72}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>ChatGPT</t>
   </si>
   <si>
-    <t>credit points</t>
-  </si>
-  <si>
     <t>gender
 colour
 religion
@@ -99,8 +96,11 @@
 temperatur (Kelvin)
 attempt
 time
-age
 thickness of tumor</t>
+  </si>
+  <si>
+    <t>credit points
+age</t>
   </si>
 </sst>
 </file>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A4C0B2-EECA-4700-9BC9-96882E932362}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -994,17 +994,17 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="165" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
